--- a/BoxOfficeReport.xlsx
+++ b/BoxOfficeReport.xlsx
@@ -472,13 +472,18 @@
           <t>The Super Mario Bros. Movie</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>490015825</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Apr 5</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>490015825</v>
-      </c>
-      <c r="E2" t="inlineStr">
+        <v>499527705</v>
+      </c>
+      <c r="E2" t="n">
+        <v>499527705</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>100.0%</t>
         </is>
@@ -495,13 +500,18 @@
           <t>Avatar: The Way of Water</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>282938706</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Dec 16</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>683946614</v>
-      </c>
-      <c r="E3" t="inlineStr">
+        <v>282977939</v>
+      </c>
+      <c r="E3" t="n">
+        <v>683985847</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>41.37%</t>
         </is>
@@ -518,13 +528,18 @@
           <t>Ant-Man and the Wasp: Quantumania</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>212973787</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Feb 17</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>212973787</v>
-      </c>
-      <c r="E4" t="inlineStr">
+        <v>212983187</v>
+      </c>
+      <c r="E4" t="n">
+        <v>212983187</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>100.0%</t>
         </is>
@@ -541,13 +556,18 @@
           <t>John Wick: Chapter 4</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>176155296</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mar 24</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>176155296</v>
-      </c>
-      <c r="E5" t="inlineStr">
+        <v>177697266</v>
+      </c>
+      <c r="E5" t="n">
+        <v>177697266</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>100.0%</t>
         </is>
@@ -564,13 +584,18 @@
           <t>Creed III</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>155957118</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mar 3</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>155957118</v>
-      </c>
-      <c r="E6" t="inlineStr">
+        <v>156157957</v>
+      </c>
+      <c r="E6" t="n">
+        <v>156157957</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>100.0%</t>
         </is>
